--- a/biology/Médecine/Laurent_Alexandre/Laurent_Alexandre.xlsx
+++ b/biology/Médecine/Laurent_Alexandre/Laurent_Alexandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Alexandre, né le 10 juin 1960 à Paris, est un haut fonctionnaire, chirurgien-urologue de formation, entrepreneur, chroniqueur, écrivain et militant politique français.
-Après avoir créé Medcost avec Thierry Dispot, Denis Carradot, Thomas Clément, Emery Doligé et Cédric Bannel[1], il se fait connaître comme cofondateur du site Doctissimo en 1999 puis par ses prises de position dans les années 2010 sur le développement de l'intelligence artificielle, le recul de la mort, la génétique et le transhumanisme. 
+Après avoir créé Medcost avec Thierry Dispot, Denis Carradot, Thomas Clément, Emery Doligé et Cédric Bannel, il se fait connaître comme cofondateur du site Doctissimo en 1999 puis par ses prises de position dans les années 2010 sur le développement de l'intelligence artificielle, le recul de la mort, la génétique et le transhumanisme. 
 Souvent présenté comme futurologue, il intervient régulièrement dans les médias au cours des années 2010 : il est notamment chroniqueur dans Le Monde et L'Express. 
 Il est aussi particulièrement suivi sur Twitter et YouTube.
 Par ailleurs, il détient et préside depuis 2009 DNAVision, une société belge de séquençage d'ADN, et possède des actions dans une quinzaine de sociétés en Europe, essentiellement dans les technologies NBIC.
@@ -522,31 +534,222 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Fils de dentistes et frère d’une psychiatre[2] — il a également eu un frère aîné qu’il n’a pas connu, mort à l’âge de deux ans après avoir avalé un produit toxique dans le cabinet familial[3] —, Laurent Alexandre[4] est docteur en médecine de l'université Paris-VI (1991)[5] et diplômé de l’IEP Paris (section Service public, promotion 1989)[6].
-Interne des hôpitaux de Paris en chirurgie urologique, Laurent Alexandre effectue en même temps le programme MBA d'HEC (programme appelé ISA à l'époque) de 1988 à 1990[7] pour se former au management d'entreprise sur le campus de Jouy-en-Josas. Il intègre ensuite l'ENA (1992-1994).
-Marié à une économiste d'entreprise et père de trois enfants[2], il réside à Bruxelles[8].
-Carrière
-À l'issue de sa scolarité à l'ENA, il est affecté à partir du 1er mars 1994 à un tribunal administratif[9],[10]. Mis en disponibilité dès novembre 1994[11], il est radié du corps des tribunaux administratifs en 2002[12].
-En novembre 1994, il fonde A2D Conseil puis en février 1995 Medcost[13] avec Thierry Dispot, Denis Carradot, Emery Doligé, Cédric Bannel et deux membres de sa famille. Medcost est une société de conseil et logiciels destinés aux professionnels de la santé qui entre en bourse en 2000[3].
-En 1999, s'inspirant du site américain WebMD[3], il co-fonde avec Claude Malhuret le site de santé grand public Doctissimo[14]. En 2000, Medcost édite le site internet Doctissimo. En 2001, Medcost, dont il est PDG, rachète Doctissimo pour 20 millions de francs[14]. En 2008, Medcost est racheté par le Groupe Lagardère pour 139 millions d'euros, somme dont Laurent Alexandre touche un peu plus de la moitié[15]. Il abandonne la médecine, ayant collaboré à de nombreux articles en urologie, mais sans publication scientifique majeure à son actif[16].
-En 2010, « Laurent Alexandre est un entrepreneur comblé par le rachat du site Doctissimo. Curieux de vérifier si cette réussite n’est pas le simple fruit du hasard, il se lance dans le marché du séquençage génétique »[17], et rachète en 2009 DNAVision, une société belge de séquençage d'ADN dont il prend la présidence[18],[3]. Selon Vanity Fair, « le marché du séquençage ne se développe pas aussi vite que prévu et DNAVision ne décolle pas »[3]. En 2016, GQ présente la société comme « un des leaders en Europe du séquençage d’ADN »[18].
-En septembre 2013, le groupe marketing internet Hi-Media, venu au capital un an plus tôt, cède ses parts au Groupe Hima, société de Laurent Alexandre. Le capital est donc réparti entre le groupe Hima (68 %), Laurent Alexandre (28 %) et JCG Médias (4 %)[2]. La même année, Laurent Alexandre rachète 28 % du capital du journal La Tribune au groupe Hi Media[19]. À la fin des années 2010, via une holding domiciliée au Luxembourg, il détient des parts dans une quinzaine de sociétés en Europe, essentiellement dans les technologies NBIC, dont Cellectis — société française pionnière de l’ingénierie du génome, qui concentre ses recherches dans les thérapies contre le cancer — dans laquelle il investit — en 2008 ou en 2013 selon les sources — alors qu'elle frôle la cessation de paiement : celle-ci voit ensuite le montant de son action passer de 2 euros fin 2013 à 38 euros en juin 2015[18],[3].
-Il est régulièrement présenté comme un « futurologue »[3],[20],[21].
-Laurent Alexandre déménage à Bruxelles peu avant la vente de Doctissimo[18]. Dans les années 2010, il réside à Ixelles[22]. Selon L'Obs, il est résident fiscal belge[23].
-Il est membre de l'Académie des technologies[24], du club Le Siècle[18] et proche de Jacques Attali[15], Aquilino Morelle[18], Matthieu Pigasse[2], Frigide Barjot, Jean-François Copé et Cédric Villani[22].
-Présence médiatique
-Presse et audiovisuel
-Laurent Alexandre dispose d'une forte présence médiatique au cours des années 2010, après avoir limité sa parole publique à des interviews sur l'économie d'internet et l'avenir de la recherche en génétique[25]. Il s'exprime jusqu'en 2019 dans une chronique hebdomadaire de L'Express (intitulée « Demain sera vertigineux »), de 2011 à 2018 dans une chronique du cahier « Sciences » du Monde, dans le trimestriel We demain, sur FigaroVox (site de débats du Figaro), plus occasionnellement dans Valeurs actuelles et Causeur[3],[25],[26]. Il intervient régulièrement sur les plateaux télévisés et à la radio, ainsi que sur des médias en ligne tels que Konbini et ThinkerView[3],[25]. Depuis 2019, chaque vendredi dans la matinale d'Europe 1, il propose une chronique, « En attendant demain », en alternance avec Jean-Pierre Montanay[27].
-À côté de ces « scènes à fort potentiel de notoriété », Laurent Alexandre s'invite aussi régulièrement sur des plates-formes médiatiques plus confidentielles et moins consensuelles, en particulier sur des médias classés dans la « droite dure », voire l'extrême droite et la mouvance complotiste[17].
-Réseaux sociaux
-En 2019, il dispose de 59 000 abonnés sur Twitter : selon 20 minutes, « la popularité de Laurent Alexandre, dont certaines vidéos ont été vues plusieurs centaines de milliers de fois sur YouTube, s’explique aussi par une certaine liberté de ton, voire un goût pour la provocation »[28]. Selon Vanity Fair, « la provoc’ fait partie du personnage »[3]. Arrêt sur images le présente comme un troll[25]. Il déclare notamment : « Les réseaux sociaux, c'est simple, tu publies deux ou trois trucs clivants par jour et au bout de deux ans, tu as minimum 30 000 abonnés »[29].
-Conférences
-Selon L'Obs, il est, en 2017, « l’un des conférenciers français les plus recherchés avec Luc Ferry et l'économiste Nicolas Bouzou, de ceux qui peuvent facturer entre 5 000  et   12 000 € »[23]. Le montant peut s'élever jusqu'à 17 000 euros selon Vanity Fair[3]. En novembre 2015, il est invité à Bercy par le ministre Emmanuel Macron pour un colloque sur « les nouvelles opportunités économiques »[3].
-Selon la sociologue Gaïa Lassaube : « L’ascension rapide de Laurent Alexandre au sommet du vedettariat culturel français s’explique moins par ses connaissances scientifiques, ou le charisme du conférencier, que par sa maîtrise des relais de diffusion, en marge des circuits académiques plus classiques (il n’est pas invité dans les colloques ou les séminaires) »[17].
-Parcours politique
-En 1997, il est secrétaire national de Démocratie libérale, parti présidé par Alain Madelin[18]. En 2016, GQ indique qu'Alain Madelin et Laurent Alexandre, « qui partagent les mêmes idées de droite ultra-libérale », « sont restés très proches »[18].
-Laurent Alexandre apporte son soutien à Emmanuel Macron au second tour de l'élection présidentielle de 2017[30].
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de dentistes et frère d’une psychiatre — il a également eu un frère aîné qu’il n’a pas connu, mort à l’âge de deux ans après avoir avalé un produit toxique dans le cabinet familial —, Laurent Alexandre est docteur en médecine de l'université Paris-VI (1991) et diplômé de l’IEP Paris (section Service public, promotion 1989).
+Interne des hôpitaux de Paris en chirurgie urologique, Laurent Alexandre effectue en même temps le programme MBA d'HEC (programme appelé ISA à l'époque) de 1988 à 1990 pour se former au management d'entreprise sur le campus de Jouy-en-Josas. Il intègre ensuite l'ENA (1992-1994).
+Marié à une économiste d'entreprise et père de trois enfants, il réside à Bruxelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'issue de sa scolarité à l'ENA, il est affecté à partir du 1er mars 1994 à un tribunal administratif,. Mis en disponibilité dès novembre 1994, il est radié du corps des tribunaux administratifs en 2002.
+En novembre 1994, il fonde A2D Conseil puis en février 1995 Medcost avec Thierry Dispot, Denis Carradot, Emery Doligé, Cédric Bannel et deux membres de sa famille. Medcost est une société de conseil et logiciels destinés aux professionnels de la santé qui entre en bourse en 2000.
+En 1999, s'inspirant du site américain WebMD, il co-fonde avec Claude Malhuret le site de santé grand public Doctissimo. En 2000, Medcost édite le site internet Doctissimo. En 2001, Medcost, dont il est PDG, rachète Doctissimo pour 20 millions de francs. En 2008, Medcost est racheté par le Groupe Lagardère pour 139 millions d'euros, somme dont Laurent Alexandre touche un peu plus de la moitié. Il abandonne la médecine, ayant collaboré à de nombreux articles en urologie, mais sans publication scientifique majeure à son actif.
+En 2010, « Laurent Alexandre est un entrepreneur comblé par le rachat du site Doctissimo. Curieux de vérifier si cette réussite n’est pas le simple fruit du hasard, il se lance dans le marché du séquençage génétique », et rachète en 2009 DNAVision, une société belge de séquençage d'ADN dont il prend la présidence,. Selon Vanity Fair, « le marché du séquençage ne se développe pas aussi vite que prévu et DNAVision ne décolle pas ». En 2016, GQ présente la société comme « un des leaders en Europe du séquençage d’ADN ».
+En septembre 2013, le groupe marketing internet Hi-Media, venu au capital un an plus tôt, cède ses parts au Groupe Hima, société de Laurent Alexandre. Le capital est donc réparti entre le groupe Hima (68 %), Laurent Alexandre (28 %) et JCG Médias (4 %). La même année, Laurent Alexandre rachète 28 % du capital du journal La Tribune au groupe Hi Media. À la fin des années 2010, via une holding domiciliée au Luxembourg, il détient des parts dans une quinzaine de sociétés en Europe, essentiellement dans les technologies NBIC, dont Cellectis — société française pionnière de l’ingénierie du génome, qui concentre ses recherches dans les thérapies contre le cancer — dans laquelle il investit — en 2008 ou en 2013 selon les sources — alors qu'elle frôle la cessation de paiement : celle-ci voit ensuite le montant de son action passer de 2 euros fin 2013 à 38 euros en juin 2015,.
+Il est régulièrement présenté comme un « futurologue ».
+Laurent Alexandre déménage à Bruxelles peu avant la vente de Doctissimo. Dans les années 2010, il réside à Ixelles. Selon L'Obs, il est résident fiscal belge.
+Il est membre de l'Académie des technologies, du club Le Siècle et proche de Jacques Attali, Aquilino Morelle, Matthieu Pigasse, Frigide Barjot, Jean-François Copé et Cédric Villani.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Présence médiatique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Presse et audiovisuel</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Alexandre dispose d'une forte présence médiatique au cours des années 2010, après avoir limité sa parole publique à des interviews sur l'économie d'internet et l'avenir de la recherche en génétique. Il s'exprime jusqu'en 2019 dans une chronique hebdomadaire de L'Express (intitulée « Demain sera vertigineux »), de 2011 à 2018 dans une chronique du cahier « Sciences » du Monde, dans le trimestriel We demain, sur FigaroVox (site de débats du Figaro), plus occasionnellement dans Valeurs actuelles et Causeur. Il intervient régulièrement sur les plateaux télévisés et à la radio, ainsi que sur des médias en ligne tels que Konbini et ThinkerView,. Depuis 2019, chaque vendredi dans la matinale d'Europe 1, il propose une chronique, « En attendant demain », en alternance avec Jean-Pierre Montanay.
+À côté de ces « scènes à fort potentiel de notoriété », Laurent Alexandre s'invite aussi régulièrement sur des plates-formes médiatiques plus confidentielles et moins consensuelles, en particulier sur des médias classés dans la « droite dure », voire l'extrême droite et la mouvance complotiste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Présence médiatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Réseaux sociaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, il dispose de 59 000 abonnés sur Twitter : selon 20 minutes, « la popularité de Laurent Alexandre, dont certaines vidéos ont été vues plusieurs centaines de milliers de fois sur YouTube, s’explique aussi par une certaine liberté de ton, voire un goût pour la provocation ». Selon Vanity Fair, « la provoc’ fait partie du personnage ». Arrêt sur images le présente comme un troll. Il déclare notamment : « Les réseaux sociaux, c'est simple, tu publies deux ou trois trucs clivants par jour et au bout de deux ans, tu as minimum 30 000 abonnés ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présence médiatique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Conférences</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon L'Obs, il est, en 2017, « l’un des conférenciers français les plus recherchés avec Luc Ferry et l'économiste Nicolas Bouzou, de ceux qui peuvent facturer entre 5 000  et   12 000 € ». Le montant peut s'élever jusqu'à 17 000 euros selon Vanity Fair. En novembre 2015, il est invité à Bercy par le ministre Emmanuel Macron pour un colloque sur « les nouvelles opportunités économiques ».
+Selon la sociologue Gaïa Lassaube : « L’ascension rapide de Laurent Alexandre au sommet du vedettariat culturel français s’explique moins par ses connaissances scientifiques, ou le charisme du conférencier, que par sa maîtrise des relais de diffusion, en marge des circuits académiques plus classiques (il n’est pas invité dans les colloques ou les séminaires) ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Alexandre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997, il est secrétaire national de Démocratie libérale, parti présidé par Alain Madelin. En 2016, GQ indique qu'Alain Madelin et Laurent Alexandre, « qui partagent les mêmes idées de droite ultra-libérale », « sont restés très proches ».
+Laurent Alexandre apporte son soutien à Emmanuel Macron au second tour de l'élection présidentielle de 2017.
 </t>
         </is>
       </c>
